--- a/biology/Médecine/Vilazodone/Vilazodone.xlsx
+++ b/biology/Médecine/Vilazodone/Vilazodone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La vilazodone (EMD-68843, SB-659746-A) est un antidépresseur développé par Clinical Data pour le traitement de la dépression majeure, commercialisée sous le nom de ViiBryd. En 2009, le produit a donné de bons résultats dans deux essais cliniques de phase III[2].
-Le produit a obtenu son AMM de la FDA en janvier 2011[3].
+La vilazodone (EMD-68843, SB-659746-A) est un antidépresseur développé par Clinical Data pour le traitement de la dépression majeure, commercialisée sous le nom de ViiBryd. En 2009, le produit a donné de bons résultats dans deux essais cliniques de phase III.
+Le produit a obtenu son AMM de la FDA en janvier 2011.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La vilazodone agit comme un inhibiteur de la recapture de la sérotonine et comme un agoniste partiel des récepteurs 5-HT1A. Son affinité pour les autres récepteurs de sérotonine est insignifiante[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vilazodone agit comme un inhibiteur de la recapture de la sérotonine et comme un agoniste partiel des récepteurs 5-HT1A. Son affinité pour les autres récepteurs de sérotonine est insignifiante,.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Efficacité et tolérance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon une étude sur 8 semaines de traitement, la vilazodone déclenche une réponse antidépressive après une semaine. À 8 semaines, la réponse est significativement plus élevée qu’avec un placebo. Avec une dose de 40 mg/j, le produit est considéré comme bien toléré et les effets secondaires, faibles à modérés, comprennent les diarrhées, les nausées et les somnolences[6]. Elle a aussi été efficace pour le trouble de l'anxiété généralisée et le trouble de la phobie sociale (anxiété sociale) et va probablement être approuvée pour ces deux troubles[7],[8],[9],[10],[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une étude sur 8 semaines de traitement, la vilazodone déclenche une réponse antidépressive après une semaine. À 8 semaines, la réponse est significativement plus élevée qu’avec un placebo. Avec une dose de 40 mg/j, le produit est considéré comme bien toléré et les effets secondaires, faibles à modérés, comprennent les diarrhées, les nausées et les somnolences. Elle a aussi été efficace pour le trouble de l'anxiété généralisée et le trouble de la phobie sociale (anxiété sociale) et va probablement être approuvée pour ces deux troubles.
 </t>
         </is>
       </c>
